--- a/Bodega Dekorarte/Proyectos/Ermitaño/Entrega/Entrega - Producción.xlsx
+++ b/Bodega Dekorarte/Proyectos/Ermitaño/Entrega/Entrega - Producción.xlsx
@@ -657,6 +657,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,57 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,86 +1552,86 @@
   <sheetData>
     <row r="1" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="103.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="2:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1652,7 +1652,7 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1660,125 +1660,125 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
+      <c r="B10" s="8">
         <v>15</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="11">
         <v>5</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36">
+      <c r="B11" s="15">
         <v>16</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="18">
         <v>6</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
+      <c r="B12" s="8">
         <v>25</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="23">
         <v>1</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="33" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
+      <c r="B13" s="8">
         <v>28</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="23">
         <v>1</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="33" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36">
+      <c r="B14" s="15">
         <v>29</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="18">
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
